--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema5a-Met.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema5a-Met.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.658032587490924</v>
+        <v>0.703141</v>
       </c>
       <c r="H2">
-        <v>0.658032587490924</v>
+        <v>1.406282</v>
       </c>
       <c r="I2">
-        <v>0.05981101255782164</v>
+        <v>0.06072384981785994</v>
       </c>
       <c r="J2">
-        <v>0.05981101255782164</v>
+        <v>0.04843113720817007</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N2">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O2">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P2">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q2">
-        <v>1.957010347514996</v>
+        <v>2.236327997103</v>
       </c>
       <c r="R2">
-        <v>1.957010347514996</v>
+        <v>8.945311988412001</v>
       </c>
       <c r="S2">
-        <v>0.003527929810455632</v>
+        <v>0.003699410032765237</v>
       </c>
       <c r="T2">
-        <v>0.003527929810455632</v>
+        <v>0.002666760673125844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.658032587490924</v>
+        <v>0.703141</v>
       </c>
       <c r="H3">
-        <v>0.658032587490924</v>
+        <v>1.406282</v>
       </c>
       <c r="I3">
-        <v>0.05981101255782164</v>
+        <v>0.06072384981785994</v>
       </c>
       <c r="J3">
-        <v>0.05981101255782164</v>
+        <v>0.04843113720817007</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N3">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O3">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P3">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q3">
-        <v>0.3654025095305602</v>
+        <v>0.5064558212963334</v>
       </c>
       <c r="R3">
-        <v>0.3654025095305602</v>
+        <v>3.038734927778</v>
       </c>
       <c r="S3">
-        <v>0.0006587161932102575</v>
+        <v>0.0008377964899974915</v>
       </c>
       <c r="T3">
-        <v>0.0006587161932102575</v>
+        <v>0.0009059023108360971</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.658032587490924</v>
+        <v>0.703141</v>
       </c>
       <c r="H4">
-        <v>0.658032587490924</v>
+        <v>1.406282</v>
       </c>
       <c r="I4">
-        <v>0.05981101255782164</v>
+        <v>0.06072384981785994</v>
       </c>
       <c r="J4">
-        <v>0.05981101255782164</v>
+        <v>0.04843113720817007</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N4">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O4">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P4">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q4">
-        <v>2.17073442249312</v>
+        <v>3.20054314098</v>
       </c>
       <c r="R4">
-        <v>2.17073442249312</v>
+        <v>19.20325884588</v>
       </c>
       <c r="S4">
-        <v>0.003913213177140335</v>
+        <v>0.005294447604008621</v>
       </c>
       <c r="T4">
-        <v>0.003913213177140335</v>
+        <v>0.005724841744188267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.658032587490924</v>
+        <v>0.703141</v>
       </c>
       <c r="H5">
-        <v>0.658032587490924</v>
+        <v>1.406282</v>
       </c>
       <c r="I5">
-        <v>0.05981101255782164</v>
+        <v>0.06072384981785994</v>
       </c>
       <c r="J5">
-        <v>0.05981101255782164</v>
+        <v>0.04843113720817007</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N5">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O5">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P5">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q5">
-        <v>2.757314349550827</v>
+        <v>3.038561251951</v>
       </c>
       <c r="R5">
-        <v>2.757314349550827</v>
+        <v>18.231367511706</v>
       </c>
       <c r="S5">
-        <v>0.004970648981457624</v>
+        <v>0.005026491639509489</v>
       </c>
       <c r="T5">
-        <v>0.004970648981457624</v>
+        <v>0.005435103209424525</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.658032587490924</v>
+        <v>0.703141</v>
       </c>
       <c r="H6">
-        <v>0.658032587490924</v>
+        <v>1.406282</v>
       </c>
       <c r="I6">
-        <v>0.05981101255782164</v>
+        <v>0.06072384981785994</v>
       </c>
       <c r="J6">
-        <v>0.05981101255782164</v>
+        <v>0.04843113720817007</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N6">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O6">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P6">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q6">
-        <v>0.9913457395707813</v>
+        <v>1.06623598099</v>
       </c>
       <c r="R6">
-        <v>0.9913457395707813</v>
+        <v>6.39741588594</v>
       </c>
       <c r="S6">
-        <v>0.001787112772061184</v>
+        <v>0.001763803918959755</v>
       </c>
       <c r="T6">
-        <v>0.001787112772061184</v>
+        <v>0.001907186369391677</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.658032587490924</v>
+        <v>0.703141</v>
       </c>
       <c r="H7">
-        <v>0.658032587490924</v>
+        <v>1.406282</v>
       </c>
       <c r="I7">
-        <v>0.05981101255782164</v>
+        <v>0.06072384981785994</v>
       </c>
       <c r="J7">
-        <v>0.05981101255782164</v>
+        <v>0.04843113720817007</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.8955529209752</v>
+        <v>37.915598</v>
       </c>
       <c r="N7">
-        <v>37.8955529209752</v>
+        <v>75.83119600000001</v>
       </c>
       <c r="O7">
-        <v>0.7515905466411961</v>
+        <v>0.7262698307979842</v>
       </c>
       <c r="P7">
-        <v>0.7515905466411961</v>
+        <v>0.6564236302062433</v>
       </c>
       <c r="Q7">
-        <v>24.93650874298855</v>
+        <v>26.660011493318</v>
       </c>
       <c r="R7">
-        <v>24.93650874298855</v>
+        <v>106.640045973272</v>
       </c>
       <c r="S7">
-        <v>0.04495339162349661</v>
+        <v>0.04410190013261934</v>
       </c>
       <c r="T7">
-        <v>0.04495339162349661</v>
+        <v>0.03179134290120366</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.42298312793164</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H8">
-        <v>4.42298312793164</v>
+        <v>14.128838</v>
       </c>
       <c r="I8">
-        <v>0.402021274381645</v>
+        <v>0.4067261221731595</v>
       </c>
       <c r="J8">
-        <v>0.402021274381645</v>
+        <v>0.4865849749694637</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N8">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O8">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P8">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q8">
-        <v>13.15409588034399</v>
+        <v>14.978843022918</v>
       </c>
       <c r="R8">
-        <v>13.15409588034399</v>
+        <v>89.87305813750801</v>
       </c>
       <c r="S8">
-        <v>0.02371307185206469</v>
+        <v>0.0247785129149131</v>
       </c>
       <c r="T8">
-        <v>0.02371307185206469</v>
+        <v>0.02679279798459058</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.42298312793164</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H9">
-        <v>4.42298312793164</v>
+        <v>14.128838</v>
       </c>
       <c r="I9">
-        <v>0.402021274381645</v>
+        <v>0.4067261221731595</v>
       </c>
       <c r="J9">
-        <v>0.402021274381645</v>
+        <v>0.4865849749694637</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N9">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O9">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P9">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q9">
-        <v>2.456062458426254</v>
+        <v>3.39222254296689</v>
       </c>
       <c r="R9">
-        <v>2.456062458426254</v>
+        <v>30.530002886702</v>
       </c>
       <c r="S9">
-        <v>0.004427578001529465</v>
+        <v>0.00561153020714346</v>
       </c>
       <c r="T9">
-        <v>0.004427578001529465</v>
+        <v>0.009101550751292318</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.42298312793164</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H10">
-        <v>4.42298312793164</v>
+        <v>14.128838</v>
       </c>
       <c r="I10">
-        <v>0.402021274381645</v>
+        <v>0.4067261221731595</v>
       </c>
       <c r="J10">
-        <v>0.402021274381645</v>
+        <v>0.4865849749694637</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N10">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O10">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P10">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q10">
-        <v>14.59064780137492</v>
+        <v>21.43712074388</v>
       </c>
       <c r="R10">
-        <v>14.59064780137492</v>
+        <v>192.93408669492</v>
       </c>
       <c r="S10">
-        <v>0.02630276400821896</v>
+        <v>0.03546201615158551</v>
       </c>
       <c r="T10">
-        <v>0.02630276400821896</v>
+        <v>0.0575171705100922</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.42298312793164</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H11">
-        <v>4.42298312793164</v>
+        <v>14.128838</v>
       </c>
       <c r="I11">
-        <v>0.402021274381645</v>
+        <v>0.4067261221731595</v>
       </c>
       <c r="J11">
-        <v>0.402021274381645</v>
+        <v>0.4865849749694637</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N11">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O11">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P11">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q11">
-        <v>18.53336001636138</v>
+        <v>20.35217198347267</v>
       </c>
       <c r="R11">
-        <v>18.53336001636138</v>
+        <v>183.169547851254</v>
       </c>
       <c r="S11">
-        <v>0.03341034623176758</v>
+        <v>0.03366725691479801</v>
       </c>
       <c r="T11">
-        <v>0.03341034623176758</v>
+        <v>0.05460618336808634</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.42298312793164</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H12">
-        <v>4.42298312793164</v>
+        <v>14.128838</v>
       </c>
       <c r="I12">
-        <v>0.402021274381645</v>
+        <v>0.4067261221731595</v>
       </c>
       <c r="J12">
-        <v>0.402021274381645</v>
+        <v>0.4865849749694637</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N12">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O12">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P12">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q12">
-        <v>6.663356136794602</v>
+        <v>7.141609551606669</v>
       </c>
       <c r="R12">
-        <v>6.663356136794602</v>
+        <v>64.27448596446001</v>
       </c>
       <c r="S12">
-        <v>0.01201212491417346</v>
+        <v>0.01181389405289859</v>
       </c>
       <c r="T12">
-        <v>0.01201212491417346</v>
+        <v>0.01916139668213286</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.42298312793164</v>
+        <v>4.709612666666668</v>
       </c>
       <c r="H13">
-        <v>4.42298312793164</v>
+        <v>14.128838</v>
       </c>
       <c r="I13">
-        <v>0.402021274381645</v>
+        <v>0.4067261221731595</v>
       </c>
       <c r="J13">
-        <v>0.402021274381645</v>
+        <v>0.4865849749694637</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>37.8955529209752</v>
+        <v>37.915598</v>
       </c>
       <c r="N13">
-        <v>37.8955529209752</v>
+        <v>75.83119600000001</v>
       </c>
       <c r="O13">
-        <v>0.7515905466411961</v>
+        <v>0.7262698307979842</v>
       </c>
       <c r="P13">
-        <v>0.7515905466411961</v>
+        <v>0.6564236302062433</v>
       </c>
       <c r="Q13">
-        <v>167.6113911931139</v>
+        <v>178.5677806050414</v>
       </c>
       <c r="R13">
-        <v>167.6113911931139</v>
+        <v>1071.406683630248</v>
       </c>
       <c r="S13">
-        <v>0.3021553893738908</v>
+        <v>0.2953929119318208</v>
       </c>
       <c r="T13">
-        <v>0.3021553893738908</v>
+        <v>0.3194058756732694</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.926466389784547</v>
+        <v>1.168476666666667</v>
       </c>
       <c r="H14">
-        <v>0.926466389784547</v>
+        <v>3.50543</v>
       </c>
       <c r="I14">
-        <v>0.08420995240538526</v>
+        <v>0.1009106304743149</v>
       </c>
       <c r="J14">
-        <v>0.08420995240538526</v>
+        <v>0.1207239808968867</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N14">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O14">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P14">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q14">
-        <v>2.755341218504969</v>
+        <v>3.71632017423</v>
       </c>
       <c r="R14">
-        <v>2.755341218504969</v>
+        <v>22.29792104538</v>
       </c>
       <c r="S14">
-        <v>0.004967091990639737</v>
+        <v>0.006147663560678083</v>
       </c>
       <c r="T14">
-        <v>0.004967091990639737</v>
+        <v>0.006647416994881203</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.926466389784547</v>
+        <v>1.168476666666667</v>
       </c>
       <c r="H15">
-        <v>0.926466389784547</v>
+        <v>3.50543</v>
       </c>
       <c r="I15">
-        <v>0.08420995240538526</v>
+        <v>0.1009106304743149</v>
       </c>
       <c r="J15">
-        <v>0.08420995240538526</v>
+        <v>0.1207239808968867</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N15">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O15">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P15">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q15">
-        <v>0.514462581729907</v>
+        <v>0.8416260890522222</v>
       </c>
       <c r="R15">
-        <v>0.514462581729907</v>
+        <v>7.57463480147</v>
       </c>
       <c r="S15">
-        <v>0.0009274288614536812</v>
+        <v>0.00139224657640118</v>
       </c>
       <c r="T15">
-        <v>0.0009274288614536812</v>
+        <v>0.002258136801490868</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.926466389784547</v>
+        <v>1.168476666666667</v>
       </c>
       <c r="H16">
-        <v>0.926466389784547</v>
+        <v>3.50543</v>
       </c>
       <c r="I16">
-        <v>0.08420995240538526</v>
+        <v>0.1009106304743149</v>
       </c>
       <c r="J16">
-        <v>0.08420995240538526</v>
+        <v>0.1207239808968867</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N16">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O16">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P16">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q16">
-        <v>3.056250589741474</v>
+        <v>5.3186487218</v>
       </c>
       <c r="R16">
-        <v>3.056250589741474</v>
+        <v>47.8678384962</v>
       </c>
       <c r="S16">
-        <v>0.005509545505195103</v>
+        <v>0.008798290084312127</v>
       </c>
       <c r="T16">
-        <v>0.005509545505195103</v>
+        <v>0.01427027580195855</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>27</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.926466389784547</v>
+        <v>1.168476666666667</v>
       </c>
       <c r="H17">
-        <v>0.926466389784547</v>
+        <v>3.50543</v>
       </c>
       <c r="I17">
-        <v>0.08420995240538526</v>
+        <v>0.1009106304743149</v>
       </c>
       <c r="J17">
-        <v>0.08420995240538526</v>
+        <v>0.1207239808968867</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N17">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O17">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P17">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q17">
-        <v>3.882116356379866</v>
+        <v>5.049467920576666</v>
       </c>
       <c r="R17">
-        <v>3.882116356379866</v>
+        <v>45.44521128519</v>
       </c>
       <c r="S17">
-        <v>0.006998345225267127</v>
+        <v>0.008353002023722007</v>
       </c>
       <c r="T17">
-        <v>0.006998345225267127</v>
+        <v>0.01354804643977027</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.926466389784547</v>
+        <v>1.168476666666667</v>
       </c>
       <c r="H18">
-        <v>0.926466389784547</v>
+        <v>3.50543</v>
       </c>
       <c r="I18">
-        <v>0.08420995240538526</v>
+        <v>0.1009106304743149</v>
       </c>
       <c r="J18">
-        <v>0.08420995240538526</v>
+        <v>0.1207239808968867</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N18">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O18">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P18">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q18">
-        <v>1.395749277205973</v>
+        <v>1.771866332566667</v>
       </c>
       <c r="R18">
-        <v>1.395749277205973</v>
+        <v>15.9467969931</v>
       </c>
       <c r="S18">
-        <v>0.002516136661837003</v>
+        <v>0.002931081708902905</v>
       </c>
       <c r="T18">
-        <v>0.002516136661837003</v>
+        <v>0.004754031065502273</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.926466389784547</v>
+        <v>1.168476666666667</v>
       </c>
       <c r="H19">
-        <v>0.926466389784547</v>
+        <v>3.50543</v>
       </c>
       <c r="I19">
-        <v>0.08420995240538526</v>
+        <v>0.1009106304743149</v>
       </c>
       <c r="J19">
-        <v>0.08420995240538526</v>
+        <v>0.1207239808968867</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>37.8955529209752</v>
+        <v>37.915598</v>
       </c>
       <c r="N19">
-        <v>37.8955529209752</v>
+        <v>75.83119600000001</v>
       </c>
       <c r="O19">
-        <v>0.7515905466411961</v>
+        <v>0.7262698307979842</v>
       </c>
       <c r="P19">
-        <v>0.7515905466411961</v>
+        <v>0.6564236302062433</v>
       </c>
       <c r="Q19">
-        <v>35.10895610358514</v>
+        <v>44.30349156571334</v>
       </c>
       <c r="R19">
-        <v>35.10895610358514</v>
+        <v>265.82094939428</v>
       </c>
       <c r="S19">
-        <v>0.0632914041609926</v>
+        <v>0.07328834652029859</v>
       </c>
       <c r="T19">
-        <v>0.0632914041609926</v>
+        <v>0.07924607379328354</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.99438125323007</v>
+        <v>4.9980915</v>
       </c>
       <c r="H20">
-        <v>4.99438125323007</v>
+        <v>9.996183</v>
       </c>
       <c r="I20">
-        <v>0.4539577606551482</v>
+        <v>0.4316393975346656</v>
       </c>
       <c r="J20">
-        <v>0.4539577606551482</v>
+        <v>0.3442599069254795</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.97403257029727</v>
+        <v>3.180483</v>
       </c>
       <c r="N20">
-        <v>2.97403257029727</v>
+        <v>6.360966</v>
       </c>
       <c r="O20">
-        <v>0.05898461938000204</v>
+        <v>0.06092186256078212</v>
       </c>
       <c r="P20">
-        <v>0.05898461938000204</v>
+        <v>0.05506293733437207</v>
       </c>
       <c r="Q20">
-        <v>14.85345251558833</v>
+        <v>15.8963450481945</v>
       </c>
       <c r="R20">
-        <v>14.85345251558833</v>
+        <v>63.585380192778</v>
       </c>
       <c r="S20">
-        <v>0.02677652572684198</v>
+        <v>0.02629627605242569</v>
       </c>
       <c r="T20">
-        <v>0.02677652572684198</v>
+        <v>0.01895596168177444</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.99438125323007</v>
+        <v>4.9980915</v>
       </c>
       <c r="H21">
-        <v>4.99438125323007</v>
+        <v>9.996183</v>
       </c>
       <c r="I21">
-        <v>0.4539577606551482</v>
+        <v>0.4316393975346656</v>
       </c>
       <c r="J21">
-        <v>0.4539577606551482</v>
+        <v>0.3442599069254795</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.555295461770121</v>
+        <v>0.7202763333333334</v>
       </c>
       <c r="N21">
-        <v>0.555295461770121</v>
+        <v>2.160829</v>
       </c>
       <c r="O21">
-        <v>0.01101329278740183</v>
+        <v>0.01379682764696979</v>
       </c>
       <c r="P21">
-        <v>0.01101329278740183</v>
+        <v>0.01870495641971579</v>
       </c>
       <c r="Q21">
-        <v>2.773357244268428</v>
+        <v>3.6000070192845</v>
       </c>
       <c r="R21">
-        <v>2.773357244268428</v>
+        <v>21.600042115707</v>
       </c>
       <c r="S21">
-        <v>0.004999569731208432</v>
+        <v>0.005955254373427659</v>
       </c>
       <c r="T21">
-        <v>0.004999569731208432</v>
+        <v>0.006439366556096508</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.99438125323007</v>
+        <v>4.9980915</v>
       </c>
       <c r="H22">
-        <v>4.99438125323007</v>
+        <v>9.996183</v>
       </c>
       <c r="I22">
-        <v>0.4539577606551482</v>
+        <v>0.4316393975346656</v>
       </c>
       <c r="J22">
-        <v>0.4539577606551482</v>
+        <v>0.3442599069254795</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.29882510951338</v>
+        <v>4.55178</v>
       </c>
       <c r="N22">
-        <v>3.29882510951338</v>
+        <v>13.65534</v>
       </c>
       <c r="O22">
-        <v>0.06542629876659051</v>
+        <v>0.08718893185938011</v>
       </c>
       <c r="P22">
-        <v>0.06542629876659051</v>
+        <v>0.1182058087874616</v>
       </c>
       <c r="Q22">
-        <v>16.47559028463826</v>
+        <v>22.75021292787</v>
       </c>
       <c r="R22">
-        <v>16.47559028463826</v>
+        <v>136.50127756722</v>
       </c>
       <c r="S22">
-        <v>0.02970077607603611</v>
+        <v>0.03763417801947384</v>
       </c>
       <c r="T22">
-        <v>0.02970077607603611</v>
+        <v>0.04069352073122254</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.99438125323007</v>
+        <v>4.9980915</v>
       </c>
       <c r="H23">
-        <v>4.99438125323007</v>
+        <v>9.996183</v>
       </c>
       <c r="I23">
-        <v>0.4539577606551482</v>
+        <v>0.4316393975346656</v>
       </c>
       <c r="J23">
-        <v>0.4539577606551482</v>
+        <v>0.3442599069254795</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.19023981785531</v>
+        <v>4.321411</v>
       </c>
       <c r="N23">
-        <v>4.19023981785531</v>
+        <v>12.964233</v>
       </c>
       <c r="O23">
-        <v>0.08310591593232607</v>
+        <v>0.08277623461928645</v>
       </c>
       <c r="P23">
-        <v>0.08310591593232607</v>
+        <v>0.1122233241408928</v>
       </c>
       <c r="Q23">
-        <v>20.92765519283475</v>
+        <v>21.5988075871065</v>
       </c>
       <c r="R23">
-        <v>20.92765519283475</v>
+        <v>129.592845522639</v>
       </c>
       <c r="S23">
-        <v>0.03772657549383374</v>
+        <v>0.03572948404125693</v>
       </c>
       <c r="T23">
-        <v>0.03772657549383374</v>
+        <v>0.03863399112361168</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.99438125323007</v>
+        <v>4.9980915</v>
       </c>
       <c r="H24">
-        <v>4.99438125323007</v>
+        <v>9.996183</v>
       </c>
       <c r="I24">
-        <v>0.4539577606551482</v>
+        <v>0.4316393975346656</v>
       </c>
       <c r="J24">
-        <v>0.4539577606551482</v>
+        <v>0.3442599069254795</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.50652985644796</v>
+        <v>1.51639</v>
       </c>
       <c r="N24">
-        <v>1.50652985644796</v>
+        <v>4.54917</v>
       </c>
       <c r="O24">
-        <v>0.0298793264924835</v>
+        <v>0.02904631251559728</v>
       </c>
       <c r="P24">
-        <v>0.0298793264924835</v>
+        <v>0.03937934311131445</v>
       </c>
       <c r="Q24">
-        <v>7.52418447247508</v>
+        <v>7.579055969685001</v>
       </c>
       <c r="R24">
-        <v>7.52418447247508</v>
+        <v>45.47433581811</v>
       </c>
       <c r="S24">
-        <v>0.01356395214441185</v>
+        <v>0.01253753283483603</v>
       </c>
       <c r="T24">
-        <v>0.01356395214441185</v>
+        <v>0.01355672899428763</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.99438125323007</v>
+        <v>4.9980915</v>
       </c>
       <c r="H25">
-        <v>4.99438125323007</v>
+        <v>9.996183</v>
       </c>
       <c r="I25">
-        <v>0.4539577606551482</v>
+        <v>0.4316393975346656</v>
       </c>
       <c r="J25">
-        <v>0.4539577606551482</v>
+        <v>0.3442599069254795</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>37.8955529209752</v>
+        <v>37.915598</v>
       </c>
       <c r="N25">
-        <v>37.8955529209752</v>
+        <v>75.83119600000001</v>
       </c>
       <c r="O25">
-        <v>0.7515905466411961</v>
+        <v>0.7262698307979842</v>
       </c>
       <c r="P25">
-        <v>0.7515905466411961</v>
+        <v>0.6564236302062433</v>
       </c>
       <c r="Q25">
-        <v>189.2648390893066</v>
+        <v>189.505628081217</v>
       </c>
       <c r="R25">
-        <v>189.2648390893066</v>
+        <v>758.0225123248681</v>
       </c>
       <c r="S25">
-        <v>0.3411903614828161</v>
+        <v>0.3134866722132454</v>
       </c>
       <c r="T25">
-        <v>0.3411903614828161</v>
+        <v>0.2259803378384867</v>
       </c>
     </row>
   </sheetData>
